--- a/data/record.xlsx
+++ b/data/record.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,48 +466,203 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44598</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>44600</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12:49:31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44598</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>44600</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11:49:09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>00:20:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44598</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>44600</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>paused for more than3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11:49:05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>00:00:04</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44598</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+        <v>44600</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11:48:56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>00:00:25</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44598</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+        <v>44600</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>paused for more than3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11:48:47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>00:00:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11:48:32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>00:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11:48:22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11:48:15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>00:20:00</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/record.xlsx
+++ b/data/record.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,173 +450,149 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Task</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Start</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Duration</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44600</v>
+        <v>44606</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rest</t>
+          <t>pause</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>something productive</t>
+          <t>23:59:42</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12:49:31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44600</v>
+        <v>44606</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>something productive</t>
+          <t>23:59:42</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11:49:09</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>00:20:00</t>
-        </is>
-      </c>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44600</v>
+        <v>44606</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pause</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>paused for more than3</t>
+          <t>23:59:41</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11:49:05</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>00:00:04</t>
-        </is>
-      </c>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44600</v>
+        <v>44606</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>rest</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>something productive</t>
+          <t>23:59:40</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11:48:56</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>00:00:25</t>
-        </is>
-      </c>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44600</v>
+        <v>44606</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pause</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>paused for more than3</t>
+          <t>23:59:38</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11:48:47</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>00:00:08</t>
-        </is>
-      </c>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44600</v>
+        <v>44606</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>pause</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>something productive</t>
+          <t>23:27:52</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11:48:32</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>00:00:16</t>
-        </is>
-      </c>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44600</v>
+        <v>44606</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -625,42 +601,6265 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>something productive</t>
+          <t>23:27:51</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11:48:22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23:27:49</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>00:00:02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>23:27:47</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>23:27:39</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>00:00:06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>23:25:39</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>00:00:05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23:25:36</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>23:23:40</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>23:23:40</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>23:23:36</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>00:00:03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>23:23:27</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>23:23:26</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>23:23:14</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>23:23:13</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>23:22:11</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>23:22:11</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>23:21:31</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23:21:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>23:21:17</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>00:00:03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>23:20:50</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>00:00:03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>23:20:50</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>23:17:54</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>23:17:53</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>23:16:39</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>00:00:02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>23:16:39</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>23:15:03</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>00:00:07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>23:15:02</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>23:14:23</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>23:14:23</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>23:14:21</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>23:13:27</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>00:00:07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>23:13:27</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>23:09:31</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>23:09:30</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>23:09:20</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>00:00:02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>23:09:17</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>23:08:23</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>23:08:23</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>23:08:04</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>00:00:03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>23:07:43</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>00:00:03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>23:07:43</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>23:07:35</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>23:07:35</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>23:07:34</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>23:07:32</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>23:07:30</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>22:49:08</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>00:00:03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>22:49:06</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>22:48:49</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>22:48:48</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>22:45:58</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>22:45:58</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>22:41:53</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>22:41:53</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>22:09:27</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>22:09:25</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>22:09:15</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>00:00:06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>22:09:12</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>22:06:04</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>00:00:02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>22:06:06</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>00:00:03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>22:06:04</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>22:05:42</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>00:00:03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>22:05:41</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>22:05:01</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>00:00:04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>22:04:58</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>00:00:04</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>22:04:46</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>00:00:04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>21:52:49</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>21:51:30</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>00:00:02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>21:51:26</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>00:00:02</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>21:49:32</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>00:00:05</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>21:49:27</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>00:00:05</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>21:49:20</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>00:00:08</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>20:18:31</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>00:22:42</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>paused for more than 180seconds</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>20:07:16</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>02:10:10</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>17:52:07</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>02:10:10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>17:29:23</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>00:22:42</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>paused for more than 180seconds</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>17:04:13</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>00:25:06</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>16:59:20</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>00:04:51</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>16:34:05</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>00:25:04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>16:16:40</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>00:17:23</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>15:51:26</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>00:25:05</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>15:51:24</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>14:59:23</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>00:51:55</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>paused for more than 180seconds</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>14:43:11</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>00:16:09</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>14:36:48</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>00:06:23</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>paused for more than 180seconds</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>14:35:15</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>00:01:33</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>14:30:04</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>00:05:07</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>14:04:56</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>00:25:03</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>13:59:53</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>00:05:02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>13:33:17</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>00:25:05</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>13:19:58</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>00:13:06</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>12:54:48</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>00:25:04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>11:40:39</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>01:09:59</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>11:28:49</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>00:09:36</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>11:22:43</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>00:05:05</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>10:57:36</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>00:25:03</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>10:52:10</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>00:05:24</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>10:27:03</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>10:27:01</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>10:01:53</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>00:25:03</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>00:06:05</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>00:03:51</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>paused for more than 180seconds</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>00:05:55</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>00:02:04</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>00:03:51</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>paused for more than 180seconds</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>23:36:54</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>23:31:50</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>00:05:01</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>23:06:37</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>00:25:09</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>23:06:35</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>22:00:15</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>01:06:14</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>paused for more than 180seconds</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>21:53:45</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>00:06:29</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>21:41:40</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>00:12:02</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>paused for more than 180seconds</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>21:36:36</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>00:05:04</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>21:17:39</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>00:18:53</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>20:31:27</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>00:46:08</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>20:06:17</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>00:25:06</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>20:01:06</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>00:05:02</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>19:35:58</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>17:55:29</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>01:39:23</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>17:34:42</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>00:20:45</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>17:24:38</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>00:10:02</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>16:58:16</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>00:26:18</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>16:53:11</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>00:05:04</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>16:27:59</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>00:25:06</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>16:19:51</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>00:08:06</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>15:54:27</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>00:25:17</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>15:34:35</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>00:19:48</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>15:09:16</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>00:25:15</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>15:03:36</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>00:05:38</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>14:39:51</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>00:23:40</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>14:21:04</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>00:16:18</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>13:55:56</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>00:25:05</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>23:37:00</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>00:20:01</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>23:34:41</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>00:02:50</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>23:11:47</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>00:22:50</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>22:52:49</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>00:18:56</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>22:32:39</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>00:20:04</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>22:27:36</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>00:05:02</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>22:07:26</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>00:20:04</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>21:51:53</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>00:15:31</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>21:29:39</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>00:22:06</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>21:22:49</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>00:06:49</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>20:57:37</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>20:46:38</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>00:10:49</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>20:26:02</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>00:20:27</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>20:20:47</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>00:05:14</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>19:55:28</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>00:25:09</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>19:50:25</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>00:05:02</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>19:25:19</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>00:25:03</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>17:27:45</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>01:57:21</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>17:03:07</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>00:24:33</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>16:36:59</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>00:26:04</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>16:11:52</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>00:25:04</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>16:05:52</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>00:05:58</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>15:40:23</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>00:25:18</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>15:15:27</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>00:24:48</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>14:54:27</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>00:20:52</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>14:49:19</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>00:05:05</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>14:24:08</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>00:25:05</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>23:50:05</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>00:25:01</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>23:24:46</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>00:25:01</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>23:19:38</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>00:05:06</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>22:54:25</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>22:10:30</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>00:43:48</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>21:45:16</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>21:39:58</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>00:05:17</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>21:14:51</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>21:09:49</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>00:05:02</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>20:44:40</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>00:25:06</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>20:38:44</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>00:05:55</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>20:13:23</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>00:25:10</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>19:47:46</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>00:25:15</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>19:40:19</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>00:07:19</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>17:57:33</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>01:30:30</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>17:37:03</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>00:20:30</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>17:31:12</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>00:05:45</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>17:06:03</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>00:25:03</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>16:35:13</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>00:30:39</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>16:10:04</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>15:58:05</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>00:22:43</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>15:35:14</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>00:22:43</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>15:30:10</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>00:05:02</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>15:04:59</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>00:25:03</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>14:59:54</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>00:05:02</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>14:34:43</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>14:29:32</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>00:05:04</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>14:04:25</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>13:53:54</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>11:43:00</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>02:10:50</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>11:28:34</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>00:15:49</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>11:23:32</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>00:05:01</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>10:58:23</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>10:51:41</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>00:06:40</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>10:26:32</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>10:21:00</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>00:05:31</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>09:53:33</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>00:27:24</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>23:38:27</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>23:13:24</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>23:13:22</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>22:48:19</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>22:48:17</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>00:00:01</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>22:23:03</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>00:25:12</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>21:37:10</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>00:45:50</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>21:12:43</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>00:24:26</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>21:08:16</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>00:04:26</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>20:43:09</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>20:37:30</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>00:05:36</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>20:12:24</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>00:25:01</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>20:07:29</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>00:04:53</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>19:42:31</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>00:24:52</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>19:37:28</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>00:05:02</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>19:11:33</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>00:25:48</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>15:37:10</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>03:33:52</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>15:07:03</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>00:29:56</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>14:45:28</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>00:21:33</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>14:20:15</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>14:15:10</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>00:05:03</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>13:46:25</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>00:28:38</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>13:40:58</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>00:05:25</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>13:15:50</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>11:45:03</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>01:30:39</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>11:21:15</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>00:23:46</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>11:03:19</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>00:17:54</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>10:42:34</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>00:28:45</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>10:17:50</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>00:24:41</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>paused for more than 180seconds</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>10:09:49</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>00:08:02</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>10:03:39</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>00:06:07</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>rest for a bit</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>09:33:44</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>00:27:22</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>21:45:28</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>00:44:22</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>paused for more than 180seconds</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>21:35:24</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>00:10:02</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>21:11:55</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>00:23:07</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>21:07:36</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>00:04:19</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>20:44:22</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>00:23:09</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>20:34:24</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>00:09:56</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>20:05:13</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>00:29:02</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>17:51:45</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>02:03:46</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>paused for more than 180seconds</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>17:51:39</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>00:00:06</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>17:45:34</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>00:06:03</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>paused for more than 180seconds</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>17:02:55</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>00:42:25</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>16:38:48</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>00:23:59</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>16:00:22</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>00:38:10</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>15:40:45</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>00:19:25</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>15:22:56</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>00:17:45</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>15:01:43</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>00:21:10</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>14:56:35</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>00:05:06</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>14:29:50</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>00:26:40</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>14:22:06</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>00:07:43</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>13:57:57</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>00:24:55</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>pause</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>13:54:12</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>00:03:44</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>paused for more than 180seconds</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>13:53:24</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>00:00:49</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>13:48:14</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>00:05:07</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>13:23:07</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>00:25:03</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>11:27:33</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>01:48:31</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>11:20:42</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>00:06:39</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>11:15:37</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>00:05:02</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>10:50:28</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>10:41:49</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>00:08:37</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>10:16:39</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>00:25:02</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>10:11:17</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>00:05:20</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>09:44:58</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>00:26:15</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>44600</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>focus</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>something productive</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11:48:15</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>00:20:00</t>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>23:47:37</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>00:05:45</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>23:22:27</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>00:25:03</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>rest</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>22:06:15</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>01:14:42</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>something productive</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>21:39:54</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>00:26:10</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>something productive</t>
         </is>
       </c>
     </row>
